--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -94,22 +94,22 @@
     <t>support</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>help</t>
@@ -1083,25 +1083,25 @@
         <v>26</v>
       </c>
       <c r="K17">
-        <v>0.670995670995671</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L17">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="N17">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O17">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1109,25 +1109,25 @@
         <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6521739130434783</v>
+        <v>0.6485355648535565</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1187,25 +1187,25 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>0.5426829268292683</v>
+        <v>0.53125</v>
       </c>
       <c r="L21">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1213,25 +1213,25 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.53125</v>
+        <v>0.5235294117647059</v>
       </c>
       <c r="L22">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>30</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="10:17">
